--- a/itemdata.xlsx
+++ b/itemdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>63830a4eec03681b185d93ba</v>
+        <v>63839d426874dd509f9f5a89</v>
       </c>
       <c r="B2" t="str">
         <v>meter</v>
@@ -454,375 +454,33 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>258</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
+        <v>257</v>
+      </c>
+      <c r="F2" t="str">
+        <v>7</v>
       </c>
       <c r="G2" t="str">
-        <v>available</v>
+        <v>rented</v>
       </c>
       <c r="H2" t="str">
-        <v>none</v>
+        <v>umersidd</v>
       </c>
       <c r="I2" t="str">
-        <v>none</v>
+        <v>217</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-11-27T06:57:18.576Z</v>
+        <v>2022-11-27T17:24:18.770Z</v>
       </c>
       <c r="K2" t="str">
-        <v>2022-11-27T06:57:18.576Z</v>
+        <v>2022-12-01T19:34:02.099Z</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>6383125b0be7de53bc5a8dab</v>
-      </c>
-      <c r="B3" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>259</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="str">
-        <v>available</v>
-      </c>
-      <c r="H3" t="str">
-        <v>none</v>
-      </c>
-      <c r="I3" t="str">
-        <v>none</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2022-11-27T07:31:39.831Z</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2022-11-27T07:31:39.831Z</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>63839d076874dd509f9f5a71</v>
-      </c>
-      <c r="B4" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>251</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <v>available</v>
-      </c>
-      <c r="H4" t="str">
-        <v>none</v>
-      </c>
-      <c r="I4" t="str">
-        <v>none</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2022-11-27T17:23:19.298Z</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2022-11-27T17:23:19.298Z</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>63839d136874dd509f9f5a75</v>
-      </c>
-      <c r="B5" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>252</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="str">
-        <v>available</v>
-      </c>
-      <c r="H5" t="str">
-        <v>none</v>
-      </c>
-      <c r="I5" t="str">
-        <v>none</v>
-      </c>
-      <c r="J5" t="str">
-        <v>2022-11-27T17:23:31.203Z</v>
-      </c>
-      <c r="K5" t="str">
-        <v>2022-11-27T17:23:31.203Z</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>63839d1c6874dd509f9f5a79</v>
-      </c>
-      <c r="B6" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>253</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="str">
-        <v>available</v>
-      </c>
-      <c r="H6" t="str">
-        <v>none</v>
-      </c>
-      <c r="I6" t="str">
-        <v>none</v>
-      </c>
-      <c r="J6" t="str">
-        <v>2022-11-27T17:23:40.152Z</v>
-      </c>
-      <c r="K6" t="str">
-        <v>2022-11-27T17:23:40.152Z</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>63839d256874dd509f9f5a7d</v>
-      </c>
-      <c r="B7" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>254</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="str">
-        <v>available</v>
-      </c>
-      <c r="H7" t="str">
-        <v>none</v>
-      </c>
-      <c r="I7" t="str">
-        <v>none</v>
-      </c>
-      <c r="J7" t="str">
-        <v>2022-11-27T17:23:49.463Z</v>
-      </c>
-      <c r="K7" t="str">
-        <v>2022-11-27T17:23:49.463Z</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>63839d2e6874dd509f9f5a81</v>
-      </c>
-      <c r="B8" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>255</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="str">
-        <v>available</v>
-      </c>
-      <c r="H8" t="str">
-        <v>none</v>
-      </c>
-      <c r="I8" t="str">
-        <v>none</v>
-      </c>
-      <c r="J8" t="str">
-        <v>2022-11-27T17:23:58.397Z</v>
-      </c>
-      <c r="K8" t="str">
-        <v>2022-11-27T17:23:58.397Z</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>63839d376874dd509f9f5a85</v>
-      </c>
-      <c r="B9" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>256</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="str">
-        <v>available</v>
-      </c>
-      <c r="H9" t="str">
-        <v>none</v>
-      </c>
-      <c r="I9" t="str">
-        <v>none</v>
-      </c>
-      <c r="J9" t="str">
-        <v>2022-11-27T17:24:07.525Z</v>
-      </c>
-      <c r="K9" t="str">
-        <v>2022-11-27T17:24:07.525Z</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>63839d426874dd509f9f5a89</v>
-      </c>
-      <c r="B10" t="str">
-        <v>meter</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>257</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10" t="str">
-        <v>rented</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Adnan</v>
-      </c>
-      <c r="I10" t="str">
-        <v>123123123111</v>
-      </c>
-      <c r="J10" t="str">
-        <v>2022-11-27T17:24:18.770Z</v>
-      </c>
-      <c r="K10" t="str">
-        <v>2022-11-28T06:55:17.951Z</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6383ec0721cd144989b3ff47</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Circuit</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>112211</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
-      </c>
-      <c r="G11" t="str">
-        <v>available</v>
-      </c>
-      <c r="H11" t="str">
-        <v>none</v>
-      </c>
-      <c r="I11" t="str">
-        <v>none</v>
-      </c>
-      <c r="J11" t="str">
-        <v>2022-11-27T23:00:23.246Z</v>
-      </c>
-      <c r="K11" t="str">
-        <v>2022-11-27T23:00:23.246Z</v>
-      </c>
-      <c r="L11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>